--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_27.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_27.xlsx
@@ -508,295 +508,295 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_0</t>
+          <t>model_1_27_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.942042567170801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.736832997902531</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7346869150130239</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999383609879189</v>
+        <v>0.8661397322662452</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.2031703940805418</v>
       </c>
       <c r="G2" t="n">
-        <v>1.173451248867095</v>
+        <v>1.759798954798397</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9490095212618519</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003409149154124918</v>
+        <v>0.4131619748463328</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.718167185584726</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4507442668304742</v>
       </c>
       <c r="L2" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9210792404027929</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4578430384540934</v>
       </c>
       <c r="N2" t="n">
-        <v>143.7767041506904</v>
+        <v>37.18742054463078</v>
       </c>
       <c r="O2" t="n">
-        <v>285.1118766939068</v>
+        <v>74.15200413285659</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_1</t>
+          <t>model_1_27_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9425954834762762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7363437390170497</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7351385896260313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999383609879189</v>
+        <v>0.8707109388410795</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.2012321401208122</v>
       </c>
       <c r="G3" t="n">
-        <v>1.173451248867095</v>
+        <v>1.76307063121844</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9473939073607232</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003409149154124918</v>
+        <v>0.3990528686278574</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.692255265201931</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4485890548384035</v>
       </c>
       <c r="L3" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9218321477123761</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4556538840275691</v>
       </c>
       <c r="N3" t="n">
-        <v>143.7767041506904</v>
+        <v>37.20659222272563</v>
       </c>
       <c r="O3" t="n">
-        <v>285.1118766939068</v>
+        <v>74.17117581095145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_2</t>
+          <t>model_1_27_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9427999466438984</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7350854942767826</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7335185293385449</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999383609879189</v>
+        <v>0.8751194922585336</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.2005153923231105</v>
       </c>
       <c r="G4" t="n">
-        <v>1.173451248867095</v>
+        <v>1.771484519590291</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9531887690725693</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003409149154124918</v>
+        <v>0.3854457941239152</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.676944724063651</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4477894508841299</v>
       </c>
       <c r="L4" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9221105656427553</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4548416871103264</v>
       </c>
       <c r="N4" t="n">
-        <v>143.7767041506904</v>
+        <v>37.21372853098166</v>
       </c>
       <c r="O4" t="n">
-        <v>285.1118766939068</v>
+        <v>74.17831211920748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_3</t>
+          <t>model_1_27_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9495806730156886</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.734977115665605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7326043710273018</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999383609879189</v>
+        <v>0.9486071148682839</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1767454842740625</v>
       </c>
       <c r="G5" t="n">
-        <v>1.173451248867095</v>
+        <v>1.772209247862273</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9564586603459414</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003409149154124918</v>
+        <v>0.1586250070581339</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.461663604363366</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4204110896183194</v>
       </c>
       <c r="L5" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9313438951702994</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4270321440228999</v>
       </c>
       <c r="N5" t="n">
-        <v>143.7767041506904</v>
+        <v>37.46608904638685</v>
       </c>
       <c r="O5" t="n">
-        <v>285.1118766939068</v>
+        <v>74.43067263461268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_4</t>
+          <t>model_1_27_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9500857330461768</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7343858616908587</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7288506364470024</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999383609879189</v>
+        <v>0.9574799064109356</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1749749909927087</v>
       </c>
       <c r="G6" t="n">
-        <v>1.173451248867095</v>
+        <v>1.776162965913876</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9698855512856358</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003409149154124918</v>
+        <v>0.1312389862602882</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.489678136915619</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4183001207180183</v>
       </c>
       <c r="L6" t="n">
-        <v>1.015676519475498</v>
+        <v>0.932031636488411</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4248879294726138</v>
       </c>
       <c r="N6" t="n">
-        <v>143.7767041506904</v>
+        <v>37.48622444776825</v>
       </c>
       <c r="O6" t="n">
-        <v>285.1118766939068</v>
+        <v>74.45080803599407</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_5</t>
+          <t>model_1_27_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9478031806684839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7339581273562432</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7365526512937959</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999383609879189</v>
+        <v>0.9276306195271977</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1829765025063746</v>
       </c>
       <c r="G7" t="n">
-        <v>1.173451248867095</v>
+        <v>1.779023227378985</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9423358907671359</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003409149154124918</v>
+        <v>0.223369313843146</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.50954930763186</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4277575277027567</v>
       </c>
       <c r="L7" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9289234800592121</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4344942811634232</v>
       </c>
       <c r="N7" t="n">
-        <v>143.7767041506904</v>
+        <v>37.39679507197884</v>
       </c>
       <c r="O7" t="n">
-        <v>285.1118766939068</v>
+        <v>74.36137866020465</v>
       </c>
     </row>
     <row r="8">
@@ -806,193 +806,193 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.943010516269424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7338065553146182</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7319949337993011</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999383609879189</v>
+        <v>0.8797190628566302</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1997772382726112</v>
       </c>
       <c r="G8" t="n">
-        <v>1.173451248867095</v>
+        <v>1.780036790319256</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9586385819732989</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003409149154124918</v>
+        <v>0.3712491418690841</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.659835057548513</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.446964470928743</v>
       </c>
       <c r="L8" t="n">
-        <v>1.015676519475498</v>
+        <v>0.922397298749854</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4540037145453196</v>
       </c>
       <c r="N8" t="n">
-        <v>143.7767041506904</v>
+        <v>37.22110468363371</v>
       </c>
       <c r="O8" t="n">
-        <v>285.1118766939068</v>
+        <v>74.18568827185953</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_7</t>
+          <t>model_1_27_3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9448010133044172</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7330833756842339</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7343711879827679</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999383609879189</v>
+        <v>0.8948753143416678</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.193500631969643</v>
       </c>
       <c r="G9" t="n">
-        <v>1.173451248867095</v>
+        <v>1.784872695837572</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9501388585421724</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003409149154124918</v>
+        <v>0.3244691159447315</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.589005673474539</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4398870672907343</v>
       </c>
       <c r="L9" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9248354223719724</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4468148488748203</v>
       </c>
       <c r="N9" t="n">
-        <v>143.7767041506904</v>
+        <v>37.28494900104929</v>
       </c>
       <c r="O9" t="n">
-        <v>285.1118766939068</v>
+        <v>74.24953258927512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_8</t>
+          <t>model_1_27_5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9435120174887519</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7329685705239277</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7318206630100026</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999383609879189</v>
+        <v>0.8851047542346753</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1980192204414387</v>
       </c>
       <c r="G10" t="n">
-        <v>1.173451248867095</v>
+        <v>1.785640398473169</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9592619384818191</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003409149154124918</v>
+        <v>0.3546261145635373</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.634059187807489</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4449935060665928</v>
       </c>
       <c r="L10" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9230801940272366</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4520017089568325</v>
       </c>
       <c r="N10" t="n">
-        <v>143.7767041506904</v>
+        <v>37.23878236012463</v>
       </c>
       <c r="O10" t="n">
-        <v>285.1118766939068</v>
+        <v>74.20336594835045</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_9</t>
+          <t>model_1_27_4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9444220841685597</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.732698306524463</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7331375593598292</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999383609879189</v>
+        <v>0.892677815661052</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1948289720651689</v>
       </c>
       <c r="G11" t="n">
-        <v>1.173451248867095</v>
+        <v>1.787447655082041</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9545514765965268</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003409149154124918</v>
+        <v>0.3312517326985787</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.599933365624721</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4413943498337614</v>
       </c>
       <c r="L11" t="n">
-        <v>1.015676519475498</v>
+        <v>0.924319433761443</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4483458696111703</v>
       </c>
       <c r="N11" t="n">
-        <v>143.7767041506904</v>
+        <v>37.27126634319715</v>
       </c>
       <c r="O11" t="n">
-        <v>285.1118766939068</v>
+        <v>74.23584993142298</v>
       </c>
     </row>
   </sheetData>
